--- a/+aae550/+hw1/partII_d.xlsx
+++ b/+aae550/+hw1/partII_d.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="21">
   <si>
     <t>Minimization</t>
   </si>
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:Q8"/>
+      <selection activeCell="A22" sqref="A22:Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,37 +479,37 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>426.32434924711185</v>
+        <v>426.32434874831358</v>
       </c>
       <c r="F2">
-        <v>-6.3693756629551492</v>
+        <v>-6.3693756625755897</v>
       </c>
       <c r="G2">
-        <v>-0.26306243370448501</v>
+        <v>-0.26306243374244098</v>
       </c>
       <c r="H2">
-        <v>-7.9117309467036794</v>
+        <v>-7.9117309465701506</v>
       </c>
       <c r="I2">
-        <v>-0.20784613807078411</v>
+        <v>-0.20784613808265329</v>
       </c>
       <c r="J2">
-        <v>-0.49655174138992753</v>
+        <v>-0.49655174083467324</v>
       </c>
       <c r="K2">
-        <v>-1.399909055922067</v>
+        <v>-1.3999090531946932</v>
       </c>
       <c r="L2">
-        <v>-0.40002273601948324</v>
+        <v>-0.40002273670132671</v>
       </c>
       <c r="M2">
-        <v>-0.67336754910312502</v>
+        <v>-0.67336754872083482</v>
       </c>
       <c r="N2">
-        <v>-2.6545098632679842E-4</v>
+        <v>-2.6544980045328792E-4</v>
       </c>
       <c r="O2">
-        <v>-0.26865131386214058</v>
+        <v>-0.26865131295695521</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -532,37 +532,37 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>338.9074229297272</v>
+        <v>339.05997491038772</v>
       </c>
       <c r="F3">
-        <v>-8.1523843163308847</v>
+        <v>-8.1524563088173192</v>
       </c>
       <c r="G3">
-        <v>-8.4761568366911511E-2</v>
+        <v>-8.4754369118268058E-2</v>
       </c>
       <c r="H3">
-        <v>-10.250003249749101</v>
+        <v>-10.250008299292494</v>
       </c>
       <c r="I3">
-        <v>2.8886658687277134E-7</v>
+        <v>7.3771488828811016E-7</v>
       </c>
       <c r="J3">
-        <v>-7.2963186736466623E-3</v>
+        <v>-7.7346498640055161E-3</v>
       </c>
       <c r="K3">
-        <v>-0.52381716531603262</v>
+        <v>-0.52449669383324382</v>
       </c>
       <c r="L3">
-        <v>-0.61904570867099185</v>
+        <v>-0.61887582654168904</v>
       </c>
       <c r="M3">
-        <v>-0.58906105943659248</v>
+        <v>-0.58924596870116308</v>
       </c>
       <c r="N3">
-        <v>-3.3791969661591814E-3</v>
+        <v>-3.8281740186247859E-3</v>
       </c>
       <c r="O3">
-        <v>-0.4129620463821515</v>
+        <v>-0.41323112212865487</v>
       </c>
       <c r="P3">
         <v>15</v>
@@ -585,40 +585,40 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>337.55306639354808</v>
+        <v>337.57147888494512</v>
       </c>
       <c r="F4">
-        <v>-8.151781925929253</v>
+        <v>-8.1517962858188753</v>
       </c>
       <c r="G4">
-        <v>-8.4821807407074568E-2</v>
+        <v>-8.4820371418112495E-2</v>
       </c>
       <c r="H4">
-        <v>-10.250005174902887</v>
+        <v>-10.250012991454817</v>
       </c>
       <c r="I4">
-        <v>4.5999136766283755E-7</v>
+        <v>1.1547959837265864E-6</v>
       </c>
       <c r="J4">
-        <v>-3.3792963933791942E-3</v>
+        <v>-3.4313926526512439E-3</v>
       </c>
       <c r="K4">
-        <v>-0.51777786006944693</v>
+        <v>-0.51785892655021959</v>
       </c>
       <c r="L4">
-        <v>-0.62055553498263827</v>
+        <v>-0.6205352683624451</v>
       </c>
       <c r="M4">
-        <v>-0.58741210636738928</v>
+        <v>-0.58743461256286522</v>
       </c>
       <c r="N4">
-        <v>6.204572844421552E-4</v>
+        <v>5.6516963871322545E-4</v>
       </c>
       <c r="O4">
-        <v>-0.4105673412524472</v>
+        <v>-0.41060083420451987</v>
       </c>
       <c r="P4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -638,37 +638,37 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>337.75641530776932</v>
+        <v>337.74218039643858</v>
       </c>
       <c r="F5">
-        <v>-8.1518253863672214</v>
+        <v>-8.1518282778020552</v>
       </c>
       <c r="G5">
-        <v>-8.4817461363277724E-2</v>
+        <v>-8.4817172219794346E-2</v>
       </c>
       <c r="H5">
-        <v>-10.249945160274468</v>
+        <v>-10.24995690381215</v>
       </c>
       <c r="I5">
-        <v>-4.8746422695034042E-6</v>
+        <v>-3.8307722534103306E-6</v>
       </c>
       <c r="J5">
-        <v>-3.9798192216764505E-3</v>
+        <v>-3.9364912936027396E-3</v>
       </c>
       <c r="K5">
-        <v>-0.51869258147647734</v>
+        <v>-0.51862754752336571</v>
       </c>
       <c r="L5">
-        <v>-0.62032685463088066</v>
+        <v>-0.62034311311915857</v>
       </c>
       <c r="M5">
-        <v>-0.58766053134395924</v>
+        <v>-0.58764315068652206</v>
       </c>
       <c r="N5">
-        <v>2.3191929693799906E-5</v>
+        <v>6.4308416689140557E-5</v>
       </c>
       <c r="O5">
-        <v>-0.4109219681064602</v>
+        <v>-0.4108979339703025</v>
       </c>
       <c r="P5">
         <v>2</v>
@@ -691,37 +691,37 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>337.76535099952059</v>
+        <v>337.78349452258254</v>
       </c>
       <c r="F6">
-        <v>-8.1518275447506117</v>
+        <v>-8.1518379211080916</v>
       </c>
       <c r="G6">
-        <v>-8.4817245524938856E-2</v>
+        <v>-8.4816207889190753E-2</v>
       </c>
       <c r="H6">
-        <v>-10.249942839085373</v>
+        <v>-10.249945744774452</v>
       </c>
       <c r="I6">
-        <v>-5.0809701891418868E-6</v>
+        <v>-4.8226867154221864E-6</v>
       </c>
       <c r="J6">
-        <v>-4.0061361787940841E-3</v>
+        <v>-4.0582407325557845E-3</v>
       </c>
       <c r="K6">
-        <v>-0.51873273482313609</v>
+        <v>-0.51881325288530933</v>
       </c>
       <c r="L6">
-        <v>-0.62031681629421598</v>
+        <v>-0.62029668677867267</v>
       </c>
       <c r="M6">
-        <v>-0.58767144093492696</v>
+        <v>-0.58769359054519943</v>
       </c>
       <c r="N6">
-        <v>-3.0650779448970766E-6</v>
+        <v>-5.7051300926813653E-5</v>
       </c>
       <c r="O6">
-        <v>-0.410937574099702</v>
+        <v>-0.41097004329580744</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -744,37 +744,37 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>337.76416570704896</v>
+        <v>337.75244972876521</v>
       </c>
       <c r="F7">
-        <v>-8.1518273302395308</v>
+        <v>-8.1518308763395595</v>
       </c>
       <c r="G7">
-        <v>-8.4817266976046857E-2</v>
+        <v>-8.481691236604405E-2</v>
       </c>
       <c r="H7">
-        <v>-10.24994323823835</v>
+        <v>-10.249954386204362</v>
       </c>
       <c r="I7">
-        <v>-5.0454899244156692E-6</v>
+        <v>-4.0545596122765204E-6</v>
       </c>
       <c r="J7">
-        <v>-4.002629504178179E-3</v>
+        <v>-3.96671237290247E-3</v>
       </c>
       <c r="K7">
-        <v>-0.51872739648850619</v>
+        <v>-0.5186736737606954</v>
       </c>
       <c r="L7">
-        <v>-0.62031815087787345</v>
+        <v>-0.62033158155982615</v>
       </c>
       <c r="M7">
-        <v>-0.58766999384328789</v>
+        <v>-0.58765568952631186</v>
       </c>
       <c r="N7">
-        <v>4.0964768466267287E-7</v>
+        <v>3.4116853413923565E-5</v>
       </c>
       <c r="O7">
-        <v>-0.41093551345594725</v>
+        <v>-0.41091588600133799</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -797,43 +797,785 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>337.76452275984445</v>
+        <v>337.76405900506137</v>
       </c>
       <c r="F8">
-        <v>-8.1518274302395319</v>
+        <v>-8.1518335402492124</v>
       </c>
       <c r="G8">
-        <v>-8.4817256976046806E-2</v>
+        <v>-8.4816645975078653E-2</v>
       </c>
       <c r="H8">
-        <v>-10.249943162972334</v>
+        <v>-10.249951192219465</v>
       </c>
       <c r="I8">
-        <v>-5.0521802368308499E-6</v>
+        <v>-4.3384693808601327E-6</v>
       </c>
       <c r="J8">
-        <v>-4.0036780123762217E-3</v>
+        <v>-4.0009350658797294E-3</v>
       </c>
       <c r="K8">
-        <v>-0.51872899861663635</v>
+        <v>-0.51872586473641435</v>
       </c>
       <c r="L8">
-        <v>-0.62031775034584091</v>
+        <v>-0.62031853381589641</v>
       </c>
       <c r="M8">
-        <v>-0.58767042976019024</v>
+        <v>-0.58766986351993822</v>
       </c>
       <c r="N8">
-        <v>-6.4106286323806216E-7</v>
+        <v>1.9006932916454389E-8</v>
       </c>
       <c r="O8">
-        <v>-0.41093613882853419</v>
+        <v>-0.4109361432801244</v>
       </c>
       <c r="P8">
         <v>1</v>
       </c>
       <c r="Q8">
         <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>17.0859375</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>337.76405900506137</v>
+      </c>
+      <c r="F9">
+        <v>-8.1518335402492124</v>
+      </c>
+      <c r="G9">
+        <v>-8.4816645975078653E-2</v>
+      </c>
+      <c r="H9">
+        <v>-10.249951192219465</v>
+      </c>
+      <c r="I9">
+        <v>-4.3384693808601327E-6</v>
+      </c>
+      <c r="J9">
+        <v>-4.0009350658797294E-3</v>
+      </c>
+      <c r="K9">
+        <v>-0.51872586473641435</v>
+      </c>
+      <c r="L9">
+        <v>-0.62031853381589641</v>
+      </c>
+      <c r="M9">
+        <v>-0.58766986351993822</v>
+      </c>
+      <c r="N9">
+        <v>1.9006932916454389E-8</v>
+      </c>
+      <c r="O9">
+        <v>-0.4109361432801244</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>25.62890625</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>337.76405900506137</v>
+      </c>
+      <c r="F10">
+        <v>-8.1518335402492124</v>
+      </c>
+      <c r="G10">
+        <v>-8.4816645975078653E-2</v>
+      </c>
+      <c r="H10">
+        <v>-10.249951192219465</v>
+      </c>
+      <c r="I10">
+        <v>-4.3384693808601327E-6</v>
+      </c>
+      <c r="J10">
+        <v>-4.0009350658797294E-3</v>
+      </c>
+      <c r="K10">
+        <v>-0.51872586473641435</v>
+      </c>
+      <c r="L10">
+        <v>-0.62031853381589641</v>
+      </c>
+      <c r="M10">
+        <v>-0.58766986351993822</v>
+      </c>
+      <c r="N10">
+        <v>1.9006932916454389E-8</v>
+      </c>
+      <c r="O10">
+        <v>-0.4109361432801244</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>38.443359375</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>337.76405900506137</v>
+      </c>
+      <c r="F11">
+        <v>-8.1518335402492124</v>
+      </c>
+      <c r="G11">
+        <v>-8.4816645975078653E-2</v>
+      </c>
+      <c r="H11">
+        <v>-10.249951192219465</v>
+      </c>
+      <c r="I11">
+        <v>-4.3384693808601327E-6</v>
+      </c>
+      <c r="J11">
+        <v>-4.0009350658797294E-3</v>
+      </c>
+      <c r="K11">
+        <v>-0.51872586473641435</v>
+      </c>
+      <c r="L11">
+        <v>-0.62031853381589641</v>
+      </c>
+      <c r="M11">
+        <v>-0.58766986351993822</v>
+      </c>
+      <c r="N11">
+        <v>1.9006932916454389E-8</v>
+      </c>
+      <c r="O11">
+        <v>-0.4109361432801244</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>57.6650390625</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>337.76405900506137</v>
+      </c>
+      <c r="F12">
+        <v>-8.1518335402492124</v>
+      </c>
+      <c r="G12">
+        <v>-8.4816645975078653E-2</v>
+      </c>
+      <c r="H12">
+        <v>-10.249951192219465</v>
+      </c>
+      <c r="I12">
+        <v>-4.3384693808601327E-6</v>
+      </c>
+      <c r="J12">
+        <v>-4.0009350658797294E-3</v>
+      </c>
+      <c r="K12">
+        <v>-0.51872586473641435</v>
+      </c>
+      <c r="L12">
+        <v>-0.62031853381589641</v>
+      </c>
+      <c r="M12">
+        <v>-0.58766986351993822</v>
+      </c>
+      <c r="N12">
+        <v>1.9006932916454389E-8</v>
+      </c>
+      <c r="O12">
+        <v>-0.4109361432801244</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>86.49755859375</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>337.76405900506137</v>
+      </c>
+      <c r="F13">
+        <v>-8.1518335402492124</v>
+      </c>
+      <c r="G13">
+        <v>-8.4816645975078653E-2</v>
+      </c>
+      <c r="H13">
+        <v>-10.249951192219465</v>
+      </c>
+      <c r="I13">
+        <v>-4.3384693808601327E-6</v>
+      </c>
+      <c r="J13">
+        <v>-4.0009350658797294E-3</v>
+      </c>
+      <c r="K13">
+        <v>-0.51872586473641435</v>
+      </c>
+      <c r="L13">
+        <v>-0.62031853381589641</v>
+      </c>
+      <c r="M13">
+        <v>-0.58766986351993822</v>
+      </c>
+      <c r="N13">
+        <v>1.9006932916454389E-8</v>
+      </c>
+      <c r="O13">
+        <v>-0.4109361432801244</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>129.746337890625</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>337.76405900506137</v>
+      </c>
+      <c r="F14">
+        <v>-8.1518335402492124</v>
+      </c>
+      <c r="G14">
+        <v>-8.4816645975078653E-2</v>
+      </c>
+      <c r="H14">
+        <v>-10.249951192219465</v>
+      </c>
+      <c r="I14">
+        <v>-4.3384693808601327E-6</v>
+      </c>
+      <c r="J14">
+        <v>-4.0009350658797294E-3</v>
+      </c>
+      <c r="K14">
+        <v>-0.51872586473641435</v>
+      </c>
+      <c r="L14">
+        <v>-0.62031853381589641</v>
+      </c>
+      <c r="M14">
+        <v>-0.58766986351993822</v>
+      </c>
+      <c r="N14">
+        <v>1.9006932916454389E-8</v>
+      </c>
+      <c r="O14">
+        <v>-0.4109361432801244</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>194.6195068359375</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>337.76405900506137</v>
+      </c>
+      <c r="F15">
+        <v>-8.1518335402492124</v>
+      </c>
+      <c r="G15">
+        <v>-8.4816645975078653E-2</v>
+      </c>
+      <c r="H15">
+        <v>-10.249951192219465</v>
+      </c>
+      <c r="I15">
+        <v>-4.3384693808601327E-6</v>
+      </c>
+      <c r="J15">
+        <v>-4.0009350658797294E-3</v>
+      </c>
+      <c r="K15">
+        <v>-0.51872586473641435</v>
+      </c>
+      <c r="L15">
+        <v>-0.62031853381589641</v>
+      </c>
+      <c r="M15">
+        <v>-0.58766986351993822</v>
+      </c>
+      <c r="N15">
+        <v>1.9006932916454389E-8</v>
+      </c>
+      <c r="O15">
+        <v>-0.4109361432801244</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>291.92926025390625</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>337.76405900506137</v>
+      </c>
+      <c r="F16">
+        <v>-8.1518335402492124</v>
+      </c>
+      <c r="G16">
+        <v>-8.4816645975078653E-2</v>
+      </c>
+      <c r="H16">
+        <v>-10.249951192219465</v>
+      </c>
+      <c r="I16">
+        <v>-4.3384693808601327E-6</v>
+      </c>
+      <c r="J16">
+        <v>-4.0009350658797294E-3</v>
+      </c>
+      <c r="K16">
+        <v>-0.51872586473641435</v>
+      </c>
+      <c r="L16">
+        <v>-0.62031853381589641</v>
+      </c>
+      <c r="M16">
+        <v>-0.58766986351993822</v>
+      </c>
+      <c r="N16">
+        <v>1.9006932916454389E-8</v>
+      </c>
+      <c r="O16">
+        <v>-0.4109361432801244</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>437.89389038085938</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>337.76405900506137</v>
+      </c>
+      <c r="F17">
+        <v>-8.1518335402492124</v>
+      </c>
+      <c r="G17">
+        <v>-8.4816645975078653E-2</v>
+      </c>
+      <c r="H17">
+        <v>-10.249951192219465</v>
+      </c>
+      <c r="I17">
+        <v>-4.3384693808601327E-6</v>
+      </c>
+      <c r="J17">
+        <v>-4.0009350658797294E-3</v>
+      </c>
+      <c r="K17">
+        <v>-0.51872586473641435</v>
+      </c>
+      <c r="L17">
+        <v>-0.62031853381589641</v>
+      </c>
+      <c r="M17">
+        <v>-0.58766986351993822</v>
+      </c>
+      <c r="N17">
+        <v>1.9006932916454389E-8</v>
+      </c>
+      <c r="O17">
+        <v>-0.4109361432801244</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>656.84083557128906</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>337.76405900506137</v>
+      </c>
+      <c r="F18">
+        <v>-8.1518335402492124</v>
+      </c>
+      <c r="G18">
+        <v>-8.4816645975078653E-2</v>
+      </c>
+      <c r="H18">
+        <v>-10.249951192219465</v>
+      </c>
+      <c r="I18">
+        <v>-4.3384693808601327E-6</v>
+      </c>
+      <c r="J18">
+        <v>-4.0009350658797294E-3</v>
+      </c>
+      <c r="K18">
+        <v>-0.51872586473641435</v>
+      </c>
+      <c r="L18">
+        <v>-0.62031853381589641</v>
+      </c>
+      <c r="M18">
+        <v>-0.58766986351993822</v>
+      </c>
+      <c r="N18">
+        <v>1.9006932916454389E-8</v>
+      </c>
+      <c r="O18">
+        <v>-0.4109361432801244</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>985.26125335693359</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>337.76405900506137</v>
+      </c>
+      <c r="F19">
+        <v>-8.1518335402492124</v>
+      </c>
+      <c r="G19">
+        <v>-8.4816645975078653E-2</v>
+      </c>
+      <c r="H19">
+        <v>-10.249951192219465</v>
+      </c>
+      <c r="I19">
+        <v>-4.3384693808601327E-6</v>
+      </c>
+      <c r="J19">
+        <v>-4.0009350658797294E-3</v>
+      </c>
+      <c r="K19">
+        <v>-0.51872586473641435</v>
+      </c>
+      <c r="L19">
+        <v>-0.62031853381589641</v>
+      </c>
+      <c r="M19">
+        <v>-0.58766986351993822</v>
+      </c>
+      <c r="N19">
+        <v>1.9006932916454389E-8</v>
+      </c>
+      <c r="O19">
+        <v>-0.4109361432801244</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1477.8918800354004</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>337.76405900506137</v>
+      </c>
+      <c r="F20">
+        <v>-8.1518335402492124</v>
+      </c>
+      <c r="G20">
+        <v>-8.4816645975078653E-2</v>
+      </c>
+      <c r="H20">
+        <v>-10.249951192219465</v>
+      </c>
+      <c r="I20">
+        <v>-4.3384693808601327E-6</v>
+      </c>
+      <c r="J20">
+        <v>-4.0009350658797294E-3</v>
+      </c>
+      <c r="K20">
+        <v>-0.51872586473641435</v>
+      </c>
+      <c r="L20">
+        <v>-0.62031853381589641</v>
+      </c>
+      <c r="M20">
+        <v>-0.58766986351993822</v>
+      </c>
+      <c r="N20">
+        <v>1.9006932916454389E-8</v>
+      </c>
+      <c r="O20">
+        <v>-0.4109361432801244</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2216.8378200531006</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>337.76406388093909</v>
+      </c>
+      <c r="F21">
+        <v>-8.1518335375959534</v>
+      </c>
+      <c r="G21">
+        <v>-8.4816646240404525E-2</v>
+      </c>
+      <c r="H21">
+        <v>-10.24995118608331</v>
+      </c>
+      <c r="I21">
+        <v>-4.3390148170008302E-6</v>
+      </c>
+      <c r="J21">
+        <v>-4.0009502737528013E-3</v>
+      </c>
+      <c r="K21">
+        <v>-0.5187258872930709</v>
+      </c>
+      <c r="L21">
+        <v>-0.62031852817673228</v>
+      </c>
+      <c r="M21">
+        <v>-0.58766986947281885</v>
+      </c>
+      <c r="N21">
+        <v>5.1123496547234026E-9</v>
+      </c>
+      <c r="O21">
+        <v>-0.41093615129414229</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>3325.2567300796509</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>337.7640675166939</v>
+      </c>
+      <c r="F22">
+        <v>-8.1518335364865298</v>
+      </c>
+      <c r="G22">
+        <v>-8.4816646351346892E-2</v>
+      </c>
+      <c r="H22">
+        <v>-10.249951182612405</v>
+      </c>
+      <c r="I22">
+        <v>-4.3393233417621246E-6</v>
+      </c>
+      <c r="J22">
+        <v>-4.0009614213430966E-3</v>
+      </c>
+      <c r="K22">
+        <v>-0.51872590396606721</v>
+      </c>
+      <c r="L22">
+        <v>-0.6203185240084832</v>
+      </c>
+      <c r="M22">
+        <v>-0.58766987391164882</v>
+      </c>
+      <c r="N22">
+        <v>-5.3464467297814622E-9</v>
+      </c>
+      <c r="O22">
+        <v>-0.41093615738363232</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/+aae550/+hw1/partII_d.xlsx
+++ b/+aae550/+hw1/partII_d.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Grad\+aae550\+hw1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomassatterly/Grad/+aae550/+hw1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13770"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="23460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
   <si>
     <t>Minimization</t>
   </si>
@@ -87,14 +93,28 @@
   </si>
   <si>
     <t>0.45759        0.45</t>
+  </si>
+  <si>
+    <t>Total Iterations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -122,8 +142,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,69 +429,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:Q22"/>
+    <sheetView tabSelected="1" zoomScale="223" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="15.1640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" hidden="1" customWidth="1"/>
+    <col min="6" max="8" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2">
@@ -478,37 +514,37 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>426.32434874831358</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>-6.3693756625755897</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>-0.26306243374244098</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>-7.9117309465701506</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>-0.20784613808265329</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>-0.49655174083467324</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>-1.3999090531946932</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>-0.40002273670132671</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>-0.67336754872083482</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>-2.6544980045328792E-4</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>-0.26865131295695521</v>
       </c>
       <c r="P2">
@@ -518,8 +554,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3">
@@ -531,37 +567,37 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>339.05997491038772</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>-8.1524563088173192</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>-8.4754369118268058E-2</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>-10.250008299292494</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>7.3771488828811016E-7</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>-7.7346498640055161E-3</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>-0.52449669383324382</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>-0.61887582654168904</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>-0.58924596870116308</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>-3.8281740186247859E-3</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>-0.41323112212865487</v>
       </c>
       <c r="P3">
@@ -571,8 +607,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4">
@@ -584,37 +620,37 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>337.57147888494512</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>-8.1517962858188753</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>-8.4820371418112495E-2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>-10.250012991454817</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>1.1547959837265864E-6</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>-3.4313926526512439E-3</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>-0.51785892655021959</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>-0.6205352683624451</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>-0.58743461256286522</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>5.6516963871322545E-4</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>-0.41060083420451987</v>
       </c>
       <c r="P4">
@@ -624,8 +660,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5">
@@ -637,37 +673,37 @@
       <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>337.74218039643858</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>-8.1518282778020552</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>-8.4817172219794346E-2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>-10.24995690381215</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>-3.8307722534103306E-6</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>-3.9364912936027396E-3</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>-0.51862754752336571</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>-0.62034311311915857</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>-0.58764315068652206</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>6.4308416689140557E-5</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>-0.4108979339703025</v>
       </c>
       <c r="P5">
@@ -677,8 +713,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6">
@@ -690,37 +726,37 @@
       <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>337.78349452258254</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>-8.1518379211080916</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>-8.4816207889190753E-2</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>-10.249945744774452</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>-4.8226867154221864E-6</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>-4.0582407325557845E-3</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>-0.51881325288530933</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>-0.62029668677867267</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>-0.58769359054519943</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>-5.7051300926813653E-5</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>-0.41097004329580744</v>
       </c>
       <c r="P6">
@@ -730,8 +766,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7">
@@ -743,37 +779,37 @@
       <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>337.75244972876521</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>-8.1518308763395595</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>-8.481691236604405E-2</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>-10.249954386204362</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>-4.0545596122765204E-6</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>-3.96671237290247E-3</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>-0.5186736737606954</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>-0.62033158155982615</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>-0.58765568952631186</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <v>3.4116853413923565E-5</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <v>-0.41091588600133799</v>
       </c>
       <c r="P7">
@@ -783,8 +819,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8">
@@ -796,37 +832,37 @@
       <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>337.76405900506137</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>-8.1518335402492124</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>-8.4816645975078653E-2</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>-10.249951192219465</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>-4.3384693808601327E-6</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>-4.0009350658797294E-3</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>-0.51872586473641435</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>-0.62031853381589641</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>-0.58766986351993822</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>1.9006932916454389E-8</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>-0.4109361432801244</v>
       </c>
       <c r="P8">
@@ -836,8 +872,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9">
@@ -849,37 +885,37 @@
       <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>337.76405900506137</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>-8.1518335402492124</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>-8.4816645975078653E-2</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>-10.249951192219465</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>-4.3384693808601327E-6</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>-4.0009350658797294E-3</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>-0.51872586473641435</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>-0.62031853381589641</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>-0.58766986351993822</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>1.9006932916454389E-8</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>-0.4109361432801244</v>
       </c>
       <c r="P9">
@@ -889,8 +925,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10">
@@ -902,37 +938,37 @@
       <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>337.76405900506137</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>-8.1518335402492124</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>-8.4816645975078653E-2</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>-10.249951192219465</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>-4.3384693808601327E-6</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>-4.0009350658797294E-3</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>-0.51872586473641435</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>-0.62031853381589641</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>-0.58766986351993822</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>1.9006932916454389E-8</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>-0.4109361432801244</v>
       </c>
       <c r="P10">
@@ -942,8 +978,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11">
@@ -955,37 +991,37 @@
       <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>337.76405900506137</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>-8.1518335402492124</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>-8.4816645975078653E-2</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>-10.249951192219465</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>-4.3384693808601327E-6</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>-4.0009350658797294E-3</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <v>-0.51872586473641435</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>-0.62031853381589641</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="3">
         <v>-0.58766986351993822</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="3">
         <v>1.9006932916454389E-8</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="3">
         <v>-0.4109361432801244</v>
       </c>
       <c r="P11">
@@ -995,8 +1031,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12">
@@ -1008,37 +1044,37 @@
       <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>337.76405900506137</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>-8.1518335402492124</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>-8.4816645975078653E-2</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>-10.249951192219465</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>-4.3384693808601327E-6</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>-4.0009350658797294E-3</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <v>-0.51872586473641435</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>-0.62031853381589641</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="3">
         <v>-0.58766986351993822</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="3">
         <v>1.9006932916454389E-8</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="3">
         <v>-0.4109361432801244</v>
       </c>
       <c r="P12">
@@ -1048,8 +1084,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13">
@@ -1061,37 +1097,37 @@
       <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>337.76405900506137</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>-8.1518335402492124</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>-8.4816645975078653E-2</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>-10.249951192219465</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>-4.3384693808601327E-6</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>-4.0009350658797294E-3</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <v>-0.51872586473641435</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>-0.62031853381589641</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="3">
         <v>-0.58766986351993822</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="3">
         <v>1.9006932916454389E-8</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="3">
         <v>-0.4109361432801244</v>
       </c>
       <c r="P13">
@@ -1101,8 +1137,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14">
@@ -1114,37 +1150,37 @@
       <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>337.76405900506137</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>-8.1518335402492124</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>-8.4816645975078653E-2</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>-10.249951192219465</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <v>-4.3384693808601327E-6</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <v>-4.0009350658797294E-3</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <v>-0.51872586473641435</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="3">
         <v>-0.62031853381589641</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="3">
         <v>-0.58766986351993822</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="3">
         <v>1.9006932916454389E-8</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="3">
         <v>-0.4109361432801244</v>
       </c>
       <c r="P14">
@@ -1154,8 +1190,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15">
@@ -1167,37 +1203,37 @@
       <c r="D15" t="s">
         <v>20</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>337.76405900506137</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>-8.1518335402492124</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>-8.4816645975078653E-2</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>-10.249951192219465</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <v>-4.3384693808601327E-6</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <v>-4.0009350658797294E-3</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <v>-0.51872586473641435</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="3">
         <v>-0.62031853381589641</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="3">
         <v>-0.58766986351993822</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="3">
         <v>1.9006932916454389E-8</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="3">
         <v>-0.4109361432801244</v>
       </c>
       <c r="P15">
@@ -1207,8 +1243,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16">
@@ -1220,37 +1256,37 @@
       <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>337.76405900506137</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>-8.1518335402492124</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>-8.4816645975078653E-2</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>-10.249951192219465</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <v>-4.3384693808601327E-6</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>-4.0009350658797294E-3</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <v>-0.51872586473641435</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="3">
         <v>-0.62031853381589641</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="3">
         <v>-0.58766986351993822</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="3">
         <v>1.9006932916454389E-8</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="3">
         <v>-0.4109361432801244</v>
       </c>
       <c r="P16">
@@ -1260,8 +1296,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17">
@@ -1273,37 +1309,37 @@
       <c r="D17" t="s">
         <v>20</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>337.76405900506137</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>-8.1518335402492124</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>-8.4816645975078653E-2</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>-10.249951192219465</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <v>-4.3384693808601327E-6</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="3">
         <v>-4.0009350658797294E-3</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
         <v>-0.51872586473641435</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="3">
         <v>-0.62031853381589641</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="3">
         <v>-0.58766986351993822</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="3">
         <v>1.9006932916454389E-8</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="3">
         <v>-0.4109361432801244</v>
       </c>
       <c r="P17">
@@ -1313,8 +1349,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18">
@@ -1326,37 +1362,37 @@
       <c r="D18" t="s">
         <v>20</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>337.76405900506137</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>-8.1518335402492124</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>-8.4816645975078653E-2</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <v>-10.249951192219465</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <v>-4.3384693808601327E-6</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="3">
         <v>-4.0009350658797294E-3</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
         <v>-0.51872586473641435</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="3">
         <v>-0.62031853381589641</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="3">
         <v>-0.58766986351993822</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="3">
         <v>1.9006932916454389E-8</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="3">
         <v>-0.4109361432801244</v>
       </c>
       <c r="P18">
@@ -1366,8 +1402,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19">
@@ -1379,37 +1415,37 @@
       <c r="D19" t="s">
         <v>20</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>337.76405900506137</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>-8.1518335402492124</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>-8.4816645975078653E-2</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>-10.249951192219465</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <v>-4.3384693808601327E-6</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <v>-4.0009350658797294E-3</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <v>-0.51872586473641435</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="3">
         <v>-0.62031853381589641</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="3">
         <v>-0.58766986351993822</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="3">
         <v>1.9006932916454389E-8</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="3">
         <v>-0.4109361432801244</v>
       </c>
       <c r="P19">
@@ -1419,8 +1455,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20">
@@ -1432,37 +1468,37 @@
       <c r="D20" t="s">
         <v>20</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>337.76405900506137</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>-8.1518335402492124</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>-8.4816645975078653E-2</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <v>-10.249951192219465</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>-4.3384693808601327E-6</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <v>-4.0009350658797294E-3</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <v>-0.51872586473641435</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="3">
         <v>-0.62031853381589641</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="3">
         <v>-0.58766986351993822</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="3">
         <v>1.9006932916454389E-8</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="3">
         <v>-0.4109361432801244</v>
       </c>
       <c r="P20">
@@ -1472,8 +1508,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21">
@@ -1485,37 +1521,37 @@
       <c r="D21" t="s">
         <v>20</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>337.76406388093909</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>-8.1518335375959534</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>-8.4816646240404525E-2</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <v>-10.24995118608331</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <v>-4.3390148170008302E-6</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="3">
         <v>-4.0009502737528013E-3</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="3">
         <v>-0.5187258872930709</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="3">
         <v>-0.62031852817673228</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="3">
         <v>-0.58766986947281885</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="3">
         <v>5.1123496547234026E-9</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="3">
         <v>-0.41093615129414229</v>
       </c>
       <c r="P21">
@@ -1525,8 +1561,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22">
@@ -1538,37 +1574,37 @@
       <c r="D22" t="s">
         <v>20</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>337.7640675166939</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>-8.1518335364865298</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>-8.4816646351346892E-2</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>-10.249951182612405</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>-4.3393233417621246E-6</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="3">
         <v>-4.0009614213430966E-3</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="3">
         <v>-0.51872590396606721</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="3">
         <v>-0.6203185240084832</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="3">
         <v>-0.58766987391164882</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="3">
         <v>-5.3464467297814622E-9</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="3">
         <v>-0.41093615738363232</v>
       </c>
       <c r="P22">
@@ -1578,7 +1614,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="2">
+        <f>SUM(P2:P22)</f>
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N24:O24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>